--- a/ex2/zip/Variabel Atributes and PredictiveTable.xlsx
+++ b/ex2/zip/Variabel Atributes and PredictiveTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VarAtributes" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="107">
   <si>
     <t>TOKEN</t>
   </si>
@@ -1474,7 +1474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1831,11 +1831,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2358,7 +2358,9 @@
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="D14" s="12" t="s">
+        <v>106</v>
+      </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
